--- a/biology/Botanique/Val_d'Esquierry/Val_d'Esquierry.xlsx
+++ b/biology/Botanique/Val_d'Esquierry/Val_d'Esquierry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val_d%27Esquierry</t>
+          <t>Val_d'Esquierry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Val d'Esquierry[1] est situé sur la commune d'Oô dans la Haute-Garonne en région Occitanie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Val d'Esquierry est situé sur la commune d'Oô dans la Haute-Garonne en région Occitanie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val_d%27Esquierry</t>
+          <t>Val_d'Esquierry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Val d'Esquierry mesure environ 6 km de long et 2 km de large, il est surnommé « le jardin botanique des Pyrénées » grâce à ses nombreuses variétés de plantes et fleurs sauvages[2],[3],[4],[5].
-Des randonnées botaniques y sont organisées par l'association Nature en Occitanie[6].
-Le Val d'Esquierry est aussi connu pour être le territoire des marmottes[5],[7],[8].
-Le ruisseau d'Esquierry est un affluent rive gauche de la Neste d'Oô[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Val d'Esquierry mesure environ 6 km de long et 2 km de large, il est surnommé « le jardin botanique des Pyrénées » grâce à ses nombreuses variétés de plantes et fleurs sauvages.
+Des randonnées botaniques y sont organisées par l'association Nature en Occitanie.
+Le Val d'Esquierry est aussi connu pour être le territoire des marmottes.
+Le ruisseau d'Esquierry est un affluent rive gauche de la Neste d'Oô.
 			Val d'Esquierry en montant vers le Pas de Courret d'Esquierry
 			Val d'Esquierry
 			Une marmotte dans le Val d'Esquierry
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val_d%27Esquierry</t>
+          <t>Val_d'Esquierry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Randonnée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Val d'Esquierry est accessible depuis les Granges d'Astau ou aux départs des villages de Loudenvielle ou de Germ[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Val d'Esquierry est accessible depuis les Granges d'Astau ou aux départs des villages de Loudenvielle ou de Germ.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val_d%27Esquierry</t>
+          <t>Val_d'Esquierry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Protection environnementale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Val d'Esquierry est situé sur la zone Natura 2000 de la Haute vallée d'Oô et classé en zone spéciale de conservation (en référence à la Directive habitats) depuis 2007 sur une superficie de 3 407 hectares[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Val d'Esquierry est situé sur la zone Natura 2000 de la Haute vallée d'Oô et classé en zone spéciale de conservation (en référence à la Directive habitats) depuis 2007 sur une superficie de 3 407 hectares.
 </t>
         </is>
       </c>
